--- a/sprints/sprint 2/Burndown Chart Sprint 2.xlsx
+++ b/sprints/sprint 2/Burndown Chart Sprint 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/azeldaniel/Documents/UWI/Year 3/Semester 1/COMP 3613/project/swe2-project/sprints/sprint 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A185F347-2710-2B49-BB1A-43E9A6159010}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C755691-9D77-A748-8CA4-061E90D05A1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19460" xr2:uid="{583FEC89-0C8D-4923-A5A2-4ADAB6A20CAF}"/>
   </bookViews>
@@ -251,6 +251,12 @@
                 <c:pt idx="8">
                   <c:v>43424</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>43425</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43426</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -262,6 +268,15 @@
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -332,6 +347,12 @@
                 <c:pt idx="8">
                   <c:v>43424</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>43425</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43426</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -345,27 +366,33 @@
                   <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1476,7 +1503,7 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1525,9 +1552,12 @@
       <c r="A3" s="1">
         <v>43417</v>
       </c>
+      <c r="B3">
+        <v>72</v>
+      </c>
       <c r="C3" s="3">
-        <f>C2-9</f>
-        <v>63</v>
+        <f>C2-7</f>
+        <v>65</v>
       </c>
       <c r="U3" t="s">
         <v>1</v>
@@ -1544,9 +1574,12 @@
       <c r="A4" s="1">
         <v>43418</v>
       </c>
+      <c r="B4">
+        <v>60</v>
+      </c>
       <c r="C4" s="3">
-        <f t="shared" ref="C4:C10" si="1">C3-9</f>
-        <v>54</v>
+        <f t="shared" ref="C4:C12" si="1">C3-7</f>
+        <v>58</v>
       </c>
       <c r="U4" t="s">
         <v>2</v>
@@ -1563,9 +1596,12 @@
       <c r="A5" s="1">
         <v>43419</v>
       </c>
+      <c r="B5">
+        <v>60</v>
+      </c>
       <c r="C5" s="3">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="U5" t="s">
         <v>3</v>
@@ -1584,7 +1620,7 @@
       </c>
       <c r="C6" s="3">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="U6" t="s">
         <v>4</v>
@@ -1603,7 +1639,7 @@
       </c>
       <c r="C7" s="3">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="V7">
         <f>SUM(V2:V6)</f>
@@ -1620,7 +1656,7 @@
       </c>
       <c r="C8" s="3">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
@@ -1629,7 +1665,7 @@
       </c>
       <c r="C9" s="3">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
@@ -1638,16 +1674,26 @@
       </c>
       <c r="C10" s="3">
         <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>43425</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>43426</v>
+      </c>
+      <c r="C12" s="3">
+        <f>C11-9</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>

--- a/sprints/sprint 2/Burndown Chart Sprint 2.xlsx
+++ b/sprints/sprint 2/Burndown Chart Sprint 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/azeldaniel/Documents/UWI/Year 3/Semester 1/COMP 3613/project/swe2-project/sprints/sprint 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C755691-9D77-A748-8CA4-061E90D05A1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D821F9F-61D8-604A-BEF0-DCD9BDAF8F8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19460" xr2:uid="{583FEC89-0C8D-4923-A5A2-4ADAB6A20CAF}"/>
   </bookViews>
@@ -277,6 +277,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1503,7 +1509,7 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1578,7 +1584,7 @@
         <v>60</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" ref="C4:C12" si="1">C3-7</f>
+        <f t="shared" ref="C4:C11" si="1">C3-7</f>
         <v>58</v>
       </c>
       <c r="U4" t="s">
@@ -1618,6 +1624,9 @@
       <c r="A6" s="1">
         <v>43420</v>
       </c>
+      <c r="B6">
+        <v>60</v>
+      </c>
       <c r="C6" s="3">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -1636,6 +1645,9 @@
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43421</v>
+      </c>
+      <c r="B7">
+        <v>55</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" si="1"/>

--- a/sprints/sprint 2/Burndown Chart Sprint 2.xlsx
+++ b/sprints/sprint 2/Burndown Chart Sprint 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/azeldaniel/Documents/UWI/Year 3/Semester 1/COMP 3613/project/swe2-project/sprints/sprint 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D821F9F-61D8-604A-BEF0-DCD9BDAF8F8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7456F22B-2061-944E-B873-6947C5B000DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19460" xr2:uid="{583FEC89-0C8D-4923-A5A2-4ADAB6A20CAF}"/>
   </bookViews>
@@ -283,6 +283,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1509,7 +1515,7 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1666,6 +1672,9 @@
       <c r="A8" s="1">
         <v>43422</v>
       </c>
+      <c r="B8">
+        <v>54</v>
+      </c>
       <c r="C8" s="3">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -1674,6 +1683,9 @@
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43423</v>
+      </c>
+      <c r="B9">
+        <v>35</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" si="1"/>

--- a/sprints/sprint 2/Burndown Chart Sprint 2.xlsx
+++ b/sprints/sprint 2/Burndown Chart Sprint 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/azeldaniel/Documents/UWI/Year 3/Semester 1/COMP 3613/project/swe2-project/sprints/sprint 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7456F22B-2061-944E-B873-6947C5B000DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D040AC-F7C9-8549-9CE8-B5338140E029}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19460" xr2:uid="{583FEC89-0C8D-4923-A5A2-4ADAB6A20CAF}"/>
   </bookViews>
@@ -285,10 +285,13 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>54</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35</c:v>
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1515,7 +1518,7 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1673,7 +1676,7 @@
         <v>43422</v>
       </c>
       <c r="B8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" si="1"/>
@@ -1685,7 +1688,7 @@
         <v>43423</v>
       </c>
       <c r="B9">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" si="1"/>
@@ -1695,6 +1698,9 @@
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43424</v>
+      </c>
+      <c r="B10">
+        <v>34</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" si="1"/>

--- a/sprints/sprint 2/Burndown Chart Sprint 2.xlsx
+++ b/sprints/sprint 2/Burndown Chart Sprint 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/azeldaniel/Documents/UWI/Year 3/Semester 1/COMP 3613/project/swe2-project/sprints/sprint 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D040AC-F7C9-8549-9CE8-B5338140E029}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F29F0BF-C0BA-7B4F-B45F-46CA552459FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19460" xr2:uid="{583FEC89-0C8D-4923-A5A2-4ADAB6A20CAF}"/>
+    <workbookView xWindow="9040" yWindow="2680" windowWidth="33600" windowHeight="19460" xr2:uid="{583FEC89-0C8D-4923-A5A2-4ADAB6A20CAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -288,10 +288,13 @@
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34</c:v>
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1518,7 +1521,7 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1688,7 +1691,7 @@
         <v>43423</v>
       </c>
       <c r="B9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" si="1"/>
@@ -1700,7 +1703,7 @@
         <v>43424</v>
       </c>
       <c r="B10">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" si="1"/>
@@ -1710,6 +1713,9 @@
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43425</v>
+      </c>
+      <c r="B11">
+        <v>42</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" si="1"/>

--- a/sprints/sprint 2/Burndown Chart Sprint 2.xlsx
+++ b/sprints/sprint 2/Burndown Chart Sprint 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/azeldaniel/Documents/UWI/Year 3/Semester 1/COMP 3613/project/swe2-project/sprints/sprint 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F29F0BF-C0BA-7B4F-B45F-46CA552459FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D640F15A-5DDA-DB4C-96DE-F8867E91F507}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9040" yWindow="2680" windowWidth="33600" windowHeight="19460" xr2:uid="{583FEC89-0C8D-4923-A5A2-4ADAB6A20CAF}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19460" xr2:uid="{583FEC89-0C8D-4923-A5A2-4ADAB6A20CAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -257,6 +257,21 @@
                 <c:pt idx="10">
                   <c:v>43426</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>43427</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43428</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43429</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43430</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43431</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -295,6 +310,18 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -371,6 +398,21 @@
                 <c:pt idx="10">
                   <c:v>43426</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>43427</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43428</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43429</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43430</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43431</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -384,34 +426,49 @@
                   <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65</c:v>
+                  <c:v>67.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58</c:v>
+                  <c:v>62.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51</c:v>
+                  <c:v>57.600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44</c:v>
+                  <c:v>52.800000000000011</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37</c:v>
+                  <c:v>48.000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>43.200000000000017</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23</c:v>
+                  <c:v>38.40000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16</c:v>
+                  <c:v>33.600000000000023</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>28.800000000000022</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>24.000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.200000000000021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.40000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.6000000000000192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.8000000000000194</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9539925233402755E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1521,7 +1578,7 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1574,8 +1631,8 @@
         <v>72</v>
       </c>
       <c r="C3" s="3">
-        <f>C2-7</f>
-        <v>65</v>
+        <f>C2-4.8</f>
+        <v>67.2</v>
       </c>
       <c r="U3" t="s">
         <v>1</v>
@@ -1596,8 +1653,8 @@
         <v>60</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" ref="C4:C11" si="1">C3-7</f>
-        <v>58</v>
+        <f t="shared" ref="C4:C17" si="1">C3-4.8</f>
+        <v>62.400000000000006</v>
       </c>
       <c r="U4" t="s">
         <v>2</v>
@@ -1619,7 +1676,7 @@
       </c>
       <c r="C5" s="3">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>57.600000000000009</v>
       </c>
       <c r="U5" t="s">
         <v>3</v>
@@ -1641,7 +1698,7 @@
       </c>
       <c r="C6" s="3">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>52.800000000000011</v>
       </c>
       <c r="U6" t="s">
         <v>4</v>
@@ -1663,7 +1720,7 @@
       </c>
       <c r="C7" s="3">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>48.000000000000014</v>
       </c>
       <c r="V7">
         <f>SUM(V2:V6)</f>
@@ -1683,7 +1740,7 @@
       </c>
       <c r="C8" s="3">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>43.200000000000017</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
@@ -1695,7 +1752,7 @@
       </c>
       <c r="C9" s="3">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>38.40000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
@@ -1707,7 +1764,7 @@
       </c>
       <c r="C10" s="3">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>33.600000000000023</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
@@ -1719,37 +1776,74 @@
       </c>
       <c r="C11" s="3">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>28.800000000000022</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43426</v>
       </c>
+      <c r="B12">
+        <v>42</v>
+      </c>
       <c r="C12" s="3">
-        <f>C11-9</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>24.000000000000021</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="1">
+        <v>43427</v>
+      </c>
+      <c r="B13">
+        <v>42</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="1"/>
+        <v>19.200000000000021</v>
+      </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="1">
+        <v>43428</v>
+      </c>
+      <c r="B14">
+        <v>42</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="1"/>
+        <v>14.40000000000002</v>
+      </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="C15" s="3"/>
+      <c r="A15" s="1">
+        <v>43429</v>
+      </c>
+      <c r="B15">
+        <v>39</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="1"/>
+        <v>9.6000000000000192</v>
+      </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="1">
+        <v>43430</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="1"/>
+        <v>4.8000000000000194</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="C17" s="3"/>
+      <c r="A17" s="1">
+        <v>43431</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9539925233402755E-14</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>

--- a/sprints/sprint 2/Burndown Chart Sprint 2.xlsx
+++ b/sprints/sprint 2/Burndown Chart Sprint 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/azeldaniel/Documents/UWI/Year 3/Semester 1/COMP 3613/project/swe2-project/sprints/sprint 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D640F15A-5DDA-DB4C-96DE-F8867E91F507}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDC541B-C67F-7741-8FB2-98CC95BBC488}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19460" xr2:uid="{583FEC89-0C8D-4923-A5A2-4ADAB6A20CAF}"/>
   </bookViews>
@@ -269,9 +269,6 @@
                 <c:pt idx="14">
                   <c:v>43430</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>43431</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -322,6 +319,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -410,9 +410,6 @@
                 <c:pt idx="14">
                   <c:v>43430</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>43431</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -426,49 +423,46 @@
                   <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.2</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>62.400000000000006</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57.600000000000009</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52.800000000000011</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48.000000000000014</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43.200000000000017</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>38.40000000000002</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.600000000000023</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28.800000000000022</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.000000000000021</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19.200000000000021</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.40000000000002</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.6000000000000192</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.8000000000000194</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.9539925233402755E-14</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1578,7 +1572,7 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1631,8 +1625,8 @@
         <v>72</v>
       </c>
       <c r="C3" s="3">
-        <f>C2-4.8</f>
-        <v>67.2</v>
+        <f>C2-5</f>
+        <v>67</v>
       </c>
       <c r="U3" t="s">
         <v>1</v>
@@ -1653,8 +1647,8 @@
         <v>60</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" ref="C4:C17" si="1">C3-4.8</f>
-        <v>62.400000000000006</v>
+        <f t="shared" ref="C4:C16" si="1">C3-5</f>
+        <v>62</v>
       </c>
       <c r="U4" t="s">
         <v>2</v>
@@ -1676,7 +1670,7 @@
       </c>
       <c r="C5" s="3">
         <f t="shared" si="1"/>
-        <v>57.600000000000009</v>
+        <v>57</v>
       </c>
       <c r="U5" t="s">
         <v>3</v>
@@ -1698,7 +1692,7 @@
       </c>
       <c r="C6" s="3">
         <f t="shared" si="1"/>
-        <v>52.800000000000011</v>
+        <v>52</v>
       </c>
       <c r="U6" t="s">
         <v>4</v>
@@ -1720,7 +1714,7 @@
       </c>
       <c r="C7" s="3">
         <f t="shared" si="1"/>
-        <v>48.000000000000014</v>
+        <v>47</v>
       </c>
       <c r="V7">
         <f>SUM(V2:V6)</f>
@@ -1740,7 +1734,7 @@
       </c>
       <c r="C8" s="3">
         <f t="shared" si="1"/>
-        <v>43.200000000000017</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
@@ -1752,7 +1746,7 @@
       </c>
       <c r="C9" s="3">
         <f t="shared" si="1"/>
-        <v>38.40000000000002</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
@@ -1764,7 +1758,7 @@
       </c>
       <c r="C10" s="3">
         <f t="shared" si="1"/>
-        <v>33.600000000000023</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
@@ -1776,7 +1770,7 @@
       </c>
       <c r="C11" s="3">
         <f t="shared" si="1"/>
-        <v>28.800000000000022</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
@@ -1788,7 +1782,7 @@
       </c>
       <c r="C12" s="3">
         <f t="shared" si="1"/>
-        <v>24.000000000000021</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
@@ -1800,7 +1794,7 @@
       </c>
       <c r="C13" s="3">
         <f t="shared" si="1"/>
-        <v>19.200000000000021</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
@@ -1812,7 +1806,7 @@
       </c>
       <c r="C14" s="3">
         <f t="shared" si="1"/>
-        <v>14.40000000000002</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
@@ -1824,26 +1818,23 @@
       </c>
       <c r="C15" s="3">
         <f t="shared" si="1"/>
-        <v>9.6000000000000192</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43430</v>
       </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
       <c r="C16" s="3">
-        <f t="shared" si="1"/>
-        <v>4.8000000000000194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>43431</v>
-      </c>
-      <c r="C17" s="3">
-        <f t="shared" si="1"/>
-        <v>1.9539925233402755E-14</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
